--- a/Luban/Configs/Datas/LevelDatas/Events_Dialog.xlsx
+++ b/Luban/Configs/Datas/LevelDatas/Events_Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\LevelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8730BED6-8DB5-44E6-BC61-0F9F762EF637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9768C8E4-AC8B-4DAB-AD61-72E2289B5EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3940" yWindow="1860" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6680" yWindow="4050" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,44 +139,39 @@
     <t>这是第2个测试对话</t>
   </si>
   <si>
+    <t>哈哈哈哈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有赫萝给你兜底</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=|),int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001|3002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项分支</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>(list#sep=|),string</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>哈哈哈哈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>还有赫萝给你兜底</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=|),int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3001|3002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项分支（0为End）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>我操|
-我太羡慕了我操|
-我要上哪儿去找对象啊兄弟们|
-哆啦弹幕帮帮我啊|
-咋办啊我操|
-他才比我大两岁啊！</t>
+    <t>我操|我太羡慕了我操|我要上哪儿去找对象啊兄弟们|哆啦弹幕帮帮我啊|咋办啊我操|他才比我大两岁啊！</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -275,7 +270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -286,16 +281,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -576,7 +569,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -586,7 +579,7 @@
     <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
     <col min="5" max="5" width="27.75" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.1640625" customWidth="1"/>
     <col min="9" max="9" width="13.9140625" customWidth="1"/>
@@ -608,14 +601,14 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -631,22 +624,22 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
@@ -662,10 +655,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -673,8 +666,8 @@
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>36</v>
+      <c r="F4" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
@@ -686,7 +679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="84" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="56" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3000</v>
       </c>
@@ -699,8 +692,8 @@
       <c r="E5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>33</v>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -714,11 +707,9 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="3">
         <v>40000000</v>
       </c>
@@ -740,10 +731,7 @@
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G7" s="3">
         <v>40000001</v>

--- a/Luban/Configs/Datas/LevelDatas/Events_Dialog.xlsx
+++ b/Luban/Configs/Datas/LevelDatas/Events_Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\LevelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9768C8E4-AC8B-4DAB-AD61-72E2289B5EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA03250-0656-48CF-9BC1-F4C1EB3103D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="4050" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8900" yWindow="5310" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,10 +151,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3001|3002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>对话ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -172,6 +168,10 @@
   </si>
   <si>
     <t>我操|我太羡慕了我操|我要上哪儿去找对象啊兄弟们|哆啦弹幕帮帮我啊|咋办啊我操|他才比我大两岁啊！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>32000001|32000002</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -569,7 +569,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>31</v>
@@ -655,10 +655,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -667,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="5" spans="1:9" ht="56" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>3000</v>
+        <v>32000000</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>23</v>
@@ -690,15 +690,15 @@
         <v>26</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6">
-        <v>3001</v>
+        <v>32000001</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>24</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>3002</v>
+        <v>32000002</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>25</v>
